--- a/resources/xlsxs/1.xlsx
+++ b/resources/xlsxs/1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
   <si>
-    <t>Erik Ladňák</t>
+    <t>Dizajn 250€
+Webstránka 10515€
+Marináda 32€</t>
   </si>
   <si>
-    <t>Webstránka</t>
+    <t>Erik Ladňák
+Jakub Rončák
+Elf René</t>
   </si>
   <si>
-    <t>Dizajn</t>
+    <t>ladnak.erik@gmail.com
+jakub.roncak@gmail.com
+elf@rene.sk</t>
   </si>
   <si>
-    <t>Marináda s kečupom</t>
+    <t>Poznámka na 
+viac riadkov</t>
   </si>
   <si>
-    <t>jakub.roncak@gmail.com</t>
-  </si>
-  <si>
-    <t>Et kete</t>
+    <t>Dizajn 250€
+Webstránka 10    515€
+Marináda 32€</t>
   </si>
 </sst>
 </file>
@@ -43,34 +49,37 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,23 +87,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,388 +421,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43669</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2">
-        <v>43232</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3">
-        <v>250</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C3" s="6">
+        <v>43649</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3">
-        <v>1054500</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43619</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3">
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C5" s="6">
+        <v>43589</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43384</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
-        <v>251</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C6" s="6">
+        <v>43559</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
-        <v>1054501</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43551</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43385</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>252</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1054502</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43562</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>253</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1054503</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43563</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>254</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1054504</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43564</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>255</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1054505</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43605</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>256</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1054506</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43606</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>257</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1054507</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43607</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>258</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1054508</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>43547</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>259</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1054509</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43609</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>260</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1054510</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>12</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B1" r:id="rId1" display="ladnak.erik@gmail.com "/>
+    <hyperlink ref="B2:B7" r:id="rId2" display="ladnak.erik@gmail.com "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="0" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -783,6 +632,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -795,6 +645,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/xlsxs/1.xlsx
+++ b/resources/xlsxs/1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="5070"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,30 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="6">
   <si>
-    <t>Dizajn 250€
-Webstránka 10515€
-Marináda 32€</t>
+    <t>Erik Ladňák</t>
   </si>
   <si>
-    <t>Erik Ladňák
-Jakub Rončák
-Elf René</t>
+    <t>Webstránka</t>
   </si>
   <si>
-    <t>ladnak.erik@gmail.com
-jakub.roncak@gmail.com
-elf@rene.sk</t>
+    <t>Dizajn</t>
   </si>
   <si>
-    <t>Poznámka na 
-viac riadkov</t>
+    <t>Marináda s kečupom</t>
   </si>
   <si>
-    <t>Dizajn 250€
-Webstránka 10    515€
-Marináda 32€</t>
+    <t>jakub.roncak@gmail.com</t>
+  </si>
+  <si>
+    <t>Et kete</t>
   </si>
 </sst>
 </file>
@@ -49,37 +43,34 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -87,45 +78,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,206 +390,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6">
-        <v>43668</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>43669</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43649</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43619</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43589</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>43559</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>43551</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>250</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1054500</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>251</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1054501</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43385</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>252</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1054502</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43562</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1054503</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43563</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>254</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1054504</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43564</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>255</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1054505</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43605</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>256</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1054506</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43606</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>257</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1054507</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>258</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1054508</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43547</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1054509</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43609</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>260</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1054510</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="ladnak.erik@gmail.com "/>
-    <hyperlink ref="B2:B7" r:id="rId2" display="ladnak.erik@gmail.com "/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -632,7 +783,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -645,7 +795,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>